--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37236.76351677642</v>
+        <v>7410115.93983851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37236.76351677642</v>
+        <v>7410115.93983851</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27992.67399113653</v>
+        <v>2069964.257906948</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27992.67399113653</v>
+        <v>2069964.257906948</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418702962.60176</v>
+        <v>56413634.72906518</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11593.57977652112</v>
+        <v>1259723.581118082</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22582.7586217905</v>
+        <v>2424647.343425731</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33571.93746705988</v>
+        <v>3589571.105733383</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46364.93460581716</v>
+        <v>4741523.844964734</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58961.93174457444</v>
+        <v>5854472.584196086</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71558.92888333168</v>
+        <v>6967421.323427435</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84155.92602208894</v>
+        <v>8080370.06265878</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96752.9231608462</v>
+        <v>9193318.801890125</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>110004.6496059958</v>
+        <v>10298653.41288429</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>123204.1093844788</v>
+        <v>11393586.9572118</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136062.3104101441</v>
+        <v>12503361.65362738</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147185.049635171</v>
+        <v>13629254.28714258</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>158503.3929006019</v>
+        <v>14794072.12469819</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>171088.5410559635</v>
+        <v>15803660.73266204</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>183673.6892113251</v>
+        <v>16813249.34062588</v>
       </c>
     </row>
   </sheetData>
